--- a/rankingAbstract.xlsx
+++ b/rankingAbstract.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ranking</t>
   </si>
@@ -31,16 +31,22 @@
     <t>Tiempo Promedio (ms)</t>
   </si>
   <si>
+    <t>Q1</t>
+  </si>
+  <si>
     <t>Q2</t>
   </si>
   <si>
-    <t>Q1</t>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>a.b</t>
   </si>
   <si>
     <t>a.b.c</t>
   </si>
   <si>
-    <t>a.b</t>
+    <t>a(1,4).b</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>605.5</v>
+        <v>166915.75</v>
       </c>
       <c r="E2" s="1">
-        <v>0.6166800666666667</v>
+        <v>23.41878858823529</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -453,13 +459,30 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>2823.5</v>
+        <v>8351540</v>
       </c>
       <c r="E3" s="1">
-        <v>1.2496325</v>
+        <v>920.205333578125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7157441</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7012.916638799999</v>
       </c>
     </row>
   </sheetData>
